--- a/biology/Botanique/Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon/Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon.xlsx
+++ b/biology/Botanique/Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon/Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_professionnel_des_m%C3%A9tiers_de_la_premi%C3%A8re_transformation_du_bois_de_Montauban-de-Luchon</t>
+          <t>Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lycée professionnel des métiers de la première transformation du bois est un lycée professionnel français situé à Montauban-de-Luchon dans le département de la Haute-Garonne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_professionnel_des_m%C3%A9tiers_de_la_premi%C3%A8re_transformation_du_bois_de_Montauban-de-Luchon</t>
+          <t>Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à Montauban-de-Luchon, commune voisine de Bagnères-de-Luchon, le lycée professionnel a ouvert ses portes en 1956.
 Il accueille une centaine d'élèves venus de toute la France et même de pays étrangers. La plupart d'entre eux sont internes.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_professionnel_des_m%C3%A9tiers_de_la_premi%C3%A8re_transformation_du_bois_de_Montauban-de-Luchon</t>
+          <t>Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Scierie, affûtage et construction bois.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_professionnel_des_m%C3%A9tiers_de_la_premi%C3%A8re_transformation_du_bois_de_Montauban-de-Luchon</t>
+          <t>Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prendre en compte les exigences de demain liées à l'évolution des techniques dans la filière bois.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_professionnel_des_m%C3%A9tiers_de_la_premi%C3%A8re_transformation_du_bois_de_Montauban-de-Luchon</t>
+          <t>Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Formations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3e Découverte professionnelle 6 heures (1 an)
 CAP mécanicien affûteur (2 ans)
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lyc%C3%A9e_professionnel_des_m%C3%A9tiers_de_la_premi%C3%A8re_transformation_du_bois_de_Montauban-de-Luchon</t>
+          <t>Lycée_professionnel_des_métiers_de_la_première_transformation_du_bois_de_Montauban-de-Luchon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail du bois et de la forêt   Portail de la Haute-Garonne   Portail de l’éducation                   </t>
